--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
@@ -677,12 +677,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらの次元へ顔を出してしまいました。</t>
+          <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらへ顔を出してしまいました。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらの次元へ顔を出してしまいました。</t>
+          <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらへ顔を出してしまいました。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,284 +607,284 @@
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>zek_1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>……おや。失礼、驚かせるつもりはなかったのですよ。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>……おや。失礼、驚かせるつもりはなかったのですよ。</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>zek_2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらへ顔を出してしまいました。</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらへ顔を出してしまいました。</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>（彼は優雅に、しかしどこか爬虫類を思わせる動作で一礼する。）</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>（彼は優雅に、しかしどこか爬虫類を思わせる動作で一礼する。）</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>scene2_introduction</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>scene2_introduction</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Merchant");             var data = SoundManager.current.GetData("BGM/Zek_Merchant");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Merchant");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>（ゼクは懐から、何か金属的な物体を取り出し、軽く弄ぶ。それは、錆びついた懐中時計のようにも、歪んだ魔導具のようにも見える。）</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>（ゼクは懐から、何か金属的な物体を取り出し、軽く弄ぶ。それは、錆びついた懐中時計のようにも、歪んだ魔導具のようにも見える。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>zek_1</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>……おや。失礼、驚かせるつもりはなかったのですよ。</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>……おや。失礼、驚かせるつもりはなかったのですよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>zek_3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>お初にお目に掛かります、若き闘士殿。私はゼク……この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める、しがない商人に過ぎません。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>お初にお目に掛かります、若き闘士殿。私はゼク……この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める、しがない商人に過ぎません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>zek_2</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらへ顔を出してしまいました。</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらへ顔を出してしまいました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>（彼は優雅に、しかしどこか爬虫類を思わせる動作で一礼する。）</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>（彼は優雅に、しかしどこか爬虫類を思わせる動作で一礼する。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>scene2_introduction</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>scene2_introduction</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Merchant");             var data = SoundManager.current.GetData("BGM/Zek_Merchant");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Merchant");             }</t>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>zek_4</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>バルガスのように、あなたの肉体を試すような無作法はいたしません。私はただ、あなたの行く先に待つ『絶望』を、少しだけ華やかなものに変えるお手伝いをしたいだけなのです……ふふ。</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>バルガスのように、あなたの肉体を試すような無作法はいたしません。私はただ、あなたの行く先に待つ『絶望』を、少しだけ華やかなものに変えるお手伝いをしたいだけなのです……ふふ。</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>react_who</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>c_who</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>（ゼクは懐から、何か金属的な物体を取り出し、軽く弄ぶ。それは、錆びついた懐中時計のようにも、歪んだ魔導具のようにも見える。）</t>
+          <t>……お前は何者だ？</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>（ゼクは懐から、何か金属的な物体を取り出し、軽く弄ぶ。それは、錆びついた懐中時計のようにも、歪んだ魔導具のようにも見える。）</t>
+          <t>……お前は何者だ？</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>react_merchant</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>c_merchant</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>商人だと？ ここで何を売っているんだ</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>商人だと？ ここで何を売っているんだ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>react_silent</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>c_silent</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>（無言で警戒する）</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>（無言で警戒する）</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>react_who</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>zek_3</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>お初にお目に掛かります、若き闘士殿。私はゼク……この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める、しがない商人に過ぎません。</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>お初にお目に掛かります、若き闘士殿。私はゼク……この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める、しがない商人に過ぎません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>zek_4</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>バルガスのように、あなたの肉体を試すような無作法はいたしません。私はただ、あなたの行く先に待つ『絶望』を、少しだけ華やかなものに変えるお手伝いをしたいだけなのです……ふふ。</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>バルガスのように、あなたの肉体を試すような無作法はいたしません。私はただ、あなたの行く先に待つ『絶望』を、少しだけ華やかなものに変えるお手伝いをしたいだけなのです……ふふ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>react_who</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>c_who</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>……お前は何者だ？</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>……お前は何者だ？</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>react_merchant</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>c_merchant</t>
+          <t>zek_r1</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>商人だと？ ここで何を売っているんだ</t>
+          <t>ふふ、警戒心がおありで結構。ですが、私はただの商人。あなたに害を加える気など、毛頭ございませんよ。……少なくとも、今は。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>商人だと？ ここで何を売っているんだ</t>
+          <t>ふふ、警戒心がおありで結構。ですが、私はただの商人。あなたに害を加える気など、毛頭ございませんよ。……少なくとも、今は。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>react_silent</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>c_silent</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>（無言で警戒する）</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>（無言で警戒する）</t>
+          <t>scene3_forbidden_offer</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>react_who</t>
+          <t>react_merchant</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>zek_r1</t>
+          <t>zek_r2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ふふ、警戒心がおありで結構。ですが、私はただの商人。あなたに害を加える気など、毛頭ございませんよ。……少なくとも、今は。</t>
+          <t>おや、興味をお持ちで？ では、ご覧に入れましょう。この世界の果てで、命を繋ぐための『道具』を。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ふふ、警戒心がおありで結構。ですが、私はただの商人。あなたに害を加える気など、毛頭ございませんよ。……少なくとも、今は。</t>
+          <t>おや、興味をお持ちで？ では、ご覧に入れましょう。この世界の果てで、命を繋ぐための『道具』を。</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>react_merchant</t>
+          <t>react_silent</t>
         </is>
       </c>
     </row>
@@ -932,17 +932,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>zek_r2</t>
+          <t>zek_r3</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>おや、興味をお持ちで？ では、ご覧に入れましょう。この世界の果てで、命を繋ぐための『道具』を。</t>
+          <t>……ほう。言葉少なに、しかし鋭い視線。あなたの本能が、私を『危険』だと囁いているのでしょうね。賢明です。</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>おや、興味をお持ちで？ では、ご覧に入れましょう。この世界の果てで、命を繋ぐための『道具』を。</t>
+          <t>……ほう。言葉少なに、しかし鋭い視線。あなたの本能が、私を『危険』だと囁いているのでしょうね。賢明です。</t>
         </is>
       </c>
     </row>
@@ -956,99 +956,129 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>react_silent</t>
+          <t>scene3_forbidden_offer</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>（ゼクが長い指先を虚空で躍らせると、空間の裂け目から禍々しいオーラを放つ品々が浮かび上がる。）</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>（ゼクが長い指先を虚空で躍らせると、空間の裂け目から禍々しいオーラを放つ品々が浮かび上がる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>（焼けただれた魔導書、ページが勝手にめくれ、奇妙な文字が光る。不規則に脈打つ肉塊、まるで心臓のように拍動している。毒々しく発光する薬瓶、中の液体が泡立っている。）</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>（焼けただれた魔導書、ページが勝手にめくれ、奇妙な文字が光る。不規則に脈打つ肉塊、まるで心臓のように拍動している。毒々しく発光する薬瓶、中の液体が泡立っている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>zek_r3</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>……ほう。言葉少なに、しかし鋭い視線。あなたの本能が、私を『危険』だと囁いているのでしょうね。賢明です。</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>……ほう。言葉少なに、しかし鋭い視線。あなたの本能が、私を『危険』だと囁いているのでしょうね。賢明です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>scene3_forbidden_offer</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>scene3_forbidden_offer</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>zek_5</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>zek_6</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>（ゼクが長い指先を虚空で躍らせると、空間の裂け目から禍々しいオーラを放つ品々が浮かび上がる。）</t>
+          <t>地上の安っぽい防具では、魂まで凍り付いてしまうでしょう。……ああ、想像できますよ。あなたが氷漬けになり、そのまま観客たちの冷笑の中で砕け散る様が。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>（ゼクが長い指先を虚空で躍らせると、空間の裂け目から禍々しいオーラを放つ品々が浮かび上がる。）</t>
+          <t>地上の安っぽい防具では、魂まで凍り付いてしまうでしょう。……ああ、想像できますよ。あなたが氷漬けになり、そのまま観客たちの冷笑の中で砕け散る様が。</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_shady_merchant</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>zek_7</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>（焼けただれた魔導書、ページが勝手にめくれ、奇妙な文字が光る。不規則に脈打つ肉塊、まるで心臓のように拍動している。毒々しく発光する薬瓶、中の液体が泡立っている。）</t>
+          <t>どうでしょう、この薬……名は**『業火の接吻』**。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>（焼けただれた魔導書、ページが勝手にめくれ、奇妙な文字が光る。不規則に脈打つ肉塊、まるで心臓のように拍動している。毒々しく発光する薬瓶、中の液体が泡立っている。）</t>
+          <t>どうでしょう、この薬……名は**『業火の接吻』**。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
         </is>
       </c>
     </row>
@@ -1060,171 +1090,141 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>zek_5</t>
+          <t>zek_8</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
+          <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかりこのアリーナの糧としていただくことになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
+          <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかりこのアリーナの糧としていただくことになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>price_ask</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>c_price_ask</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>代償とは、具体的には？</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>代償とは、具体的には？</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>price_refuse</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>c_price_refuse</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>怪しすぎる。断る</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>怪しすぎる。断る</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>price_consider</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>c_price_consider</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>……考えておく</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>……考えておく</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>price_ask</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>zek_6</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>地上の安っぽい防具では、魂まで凍り付いてしまうでしょう。……ああ、想像できますよ。あなたが氷漬けになり、そのまま観客たちの冷笑の中で砕け散る様が。</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>地上の安っぽい防具では、魂まで凍り付いてしまうでしょう。……ああ、想像できますよ。あなたが氷漬けになり、そのまま観客たちの冷笑の中で砕け散る様が。</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>zek_7</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>どうでしょう、この薬……名は**『業火の接吻』**。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>どうでしょう、この薬……名は**『業火の接吻』**。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>zek_8</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかりこのアリーナの糧としていただくことになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかりこのアリーナの糧としていただくことになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>price_ask</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>c_price_ask</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>代償とは、具体的には？</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>代償とは、具体的には？</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>price_refuse</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>c_price_refuse</t>
+          <t>zek_p1</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>怪しすぎる。断る</t>
+          <t>ふふ、慎重なこと。ええ、あなたの運が少し悪くなる程度です。……まあ、『少し』がどの程度かは、使ってみてのお楽しみということで。</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>怪しすぎる。断る</t>
+          <t>ふふ、慎重なこと。ええ、あなたの運が少し悪くなる程度です。……まあ、『少し』がどの程度かは、使ってみてのお楽しみということで。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>price_consider</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>c_price_consider</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>……考えておく</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>……考えておく</t>
+          <t>scene4_return_shadow</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>price_ask</t>
+          <t>price_refuse</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1236,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>zek_p1</t>
+          <t>zek_p2</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>ふふ、慎重なこと。ええ、あなたの運が少し悪くなる程度です。……まあ、『少し』がどの程度かは、使ってみてのお楽しみということで。</t>
+          <t>おや、残念。ですが、無理強いはいたしません。……いつでもお声掛けくださいませ。あなたが『絶望』を前にした時、私の品が恋しくなるでしょうから。</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ふふ、慎重なこと。ええ、あなたの運が少し悪くなる程度です。……まあ、『少し』がどの程度かは、使ってみてのお楽しみということで。</t>
+          <t>おや、残念。ですが、無理強いはいたしません。……いつでもお声掛けくださいませ。あなたが『絶望』を前にした時、私の品が恋しくなるでしょうから。</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>price_refuse</t>
+          <t>price_consider</t>
         </is>
       </c>
     </row>
@@ -1272,17 +1272,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>zek_p2</t>
+          <t>zek_p3</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>おや、残念。ですが、無理強いはいたしません。……いつでもお声掛けくださいませ。あなたが『絶望』を前にした時、私の品が恋しくなるでしょうから。</t>
+          <t>賢明な判断です。焦る必要はございません。私は常に、影の中で待っておりますから。</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>おや、残念。ですが、無理強いはいたしません。……いつでもお声掛けくださいませ。あなたが『絶望』を前にした時、私の品が恋しくなるでしょうから。</t>
+          <t>賢明な判断です。焦る必要はございません。私は常に、影の中で待っておりますから。</t>
         </is>
       </c>
     </row>
@@ -1296,401 +1296,293 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>price_consider</t>
+          <t>scene4_return_shadow</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>zek_p3</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>賢明な判断です。焦る必要はございません。私は常に、影の中で待っておりますから。</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>賢明な判断です。焦る必要はございません。私は常に、影の中で待っておりますから。</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>scene4_return_shadow</t>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>zek_9</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>さあ、賢明な選択を。私は常に、この歪んだ影の中に潜んでおりますよ。</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>さあ、賢明な選択を。私は常に、この歪んだ影の中に潜んでおりますよ。</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>scene4_return_shadow</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>zek_10</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>あなたが『力』を、あるいは『救い』を求めたくなったら……いつでもお声掛けください。あなたの魂が、完熟した果実のように弾けるその時まで、ね。</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>あなたが『力』を、あるいは『救い』を求めたくなったら……いつでもお声掛けください。あなたの魂が、完熟した果実のように弾けるその時まで、ね。</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>（ゼクの姿が薄れ、影に溶けるように消えていく。空間の裂け目が閉じ、ロビーの喧騒が一気に戻る。まるで、先ほどの出来事が幻だったかのように。）</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>（ゼクの姿が薄れ、影に溶けるように消えていく。空間の裂け目が閉じ、ロビーの喧騒が一気に戻る。まるで、先ほどの出来事が幻だったかのように。）</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>zek_9</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>さあ、賢明な選択を。私は常に、この歪んだ影の中に潜んでおりますよ。</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>さあ、賢明な選択を。私は常に、この歪んだ影の中に潜んでおりますよ。</t>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>balgas_reaction</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>zek_10</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>あなたが『力』を、あるいは『救い』を求めたくなったら……いつでもお声掛けください。あなたの魂が、完熟した果実のように弾けるその時まで、ね。</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>あなたが『力』を、あるいは『救い』を求めたくなったら……いつでもお声掛けください。あなたの魂が、完熟した果実のように弾けるその時まで、ね。</t>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>balgas_reaction</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>（ゼクの姿が薄れ、影に溶けるように消えていく。空間の裂け目が閉じ、ロビーの喧騒が一気に戻る。まるで、先ほどの出来事が幻だったかのように。）</t>
+          <t>……ゼクの野郎と話しやがったか。</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>（ゼクの姿が薄れ、影に溶けるように消えていく。空間の裂け目が閉じ、ロビーの喧騒が一気に戻る。まるで、先ほどの出来事が幻だったかのように。）</t>
+          <t>……ゼクの野郎と話しやがったか。</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>balgas_reaction</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>あいつから物を買うのは、悪魔に魂の切り売りをしてるのと同じだ。……まぁ、勝てば官軍だがな。せいぜい、干からびる前に使い倒してやれ。</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>あいつから物を買うのは、悪魔に魂の切り売りをしてるのと同じだ。……まぁ、勝てば官軍だがな。せいぜい、干からびる前に使い倒してやれ。</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>balgas_reaction</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>ただな……あいつは『力』を売ってるんじゃねえ。『絶望の瞬間』を集めてやがるんだ。お前が最期に何を感じるか、それを観察してやがる。……気をつけろよ。</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ただな……あいつは『力』を売ってるんじゃねえ。『絶望の瞬間』を集めてやがるんだ。お前が最期に何を感じるか、それを観察してやがる。……気をつけろよ。</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>lily_reaction</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>lily_reaction</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ゼクと話をされたのですね。</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ゼクと話をされたのですね。</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>……ゼクの野郎と話しやがったか。</t>
+          <t>……彼は、このアリーナでも特別な存在です。グランドマスターですら、彼を完全には制御できていません。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>……ゼクの野郎と話しやがったか。</t>
+          <t>……彼は、このアリーナでも特別な存在です。グランドマスターですら、彼を完全には制御できていません。</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>あいつから物を買うのは、悪魔に魂の切り売りをしてるのと同じだ。……まぁ、勝てば官軍だがな。せいぜい、干からびる前に使い倒してやれ。</t>
+          <t>ただ、彼の品が闘士の生存率を上げているのも事実。……使うか使わないかは、あなた次第ですが。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>あいつから物を買うのは、悪魔に魂の切り売りをしてるのと同じだ。……まぁ、勝てば官軍だがな。せいぜい、干からびる前に使い倒してやれ。</t>
+          <t>ただ、彼の品が闘士の生存率を上げているのも事実。……使うか使わないかは、あなた次第ですが。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>ただな……あいつは『力』を売ってるんじゃねえ。『絶望の瞬間』を集めてやがるんだ。お前が最期に何を感じるか、それを観察してやがる。……気をつけろよ。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>ただな……あいつは『力』を売ってるんじゃねえ。『絶望の瞬間』を集めてやがるんだ。お前が最期に何を感じるか、それを観察してやがる。……気をつけろよ。</t>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>lily_reaction</t>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>lily_reaction</t>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>complete_quest(03_zek_intro)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>chitsii.arena.rel.zek,10</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="D75" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>ゼクと話をされたのですね。</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>ゼクと話をされたのですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>……彼は、このアリーナでも特別な存在です。グランドマスターですら、彼を完全には制御できていません。</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>……彼は、このアリーナでも特別な存在です。グランドマスターですら、彼を完全には制御できていません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>ただ、彼の品が闘士の生存率を上げているのも事実。……使うか使わないかは、あなた次第ですが。</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>ただ、彼の品が闘士の生存率を上げているのも事実。……使うか使わないかは、あなた次第ですが。</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>complete_quest(03_zek_intro)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.zek,10</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
@@ -1109,12 +1109,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>どうでしょう、この薬……名は**『業火の接吻』**。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
+          <t>どうでしょう、この薬……名は『業火の接吻』。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>どうでしょう、この薬……名は**『業火の接吻』**。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
+          <t>どうでしょう、この薬……名は『業火の接吻』。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>ふふ、慎重なこと。ええ、あなたの運が少し悪くなる程度です。……まあ、『少し』がどの程度かは、使ってみてのお楽しみということで。</t>
+          <t>ふふ、慎重なこと。ええ、あなたの善性……いわゆる『カルマ』を少々捧げていただくだけです。……まあ、『少々』がどの程度かは、使ってみてのお楽しみということで。</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ふふ、慎重なこと。ええ、あなたの運が少し悪くなる程度です。……まあ、『少し』がどの程度かは、使ってみてのお楽しみということで。</t>
+          <t>ふふ、慎重なこと。ええ、あなたの善性……いわゆる『カルマ』を少々捧げていただくだけです。……まあ、『少々』がどの程度かは、使ってみてのお楽しみということで。</t>
         </is>
       </c>
     </row>
@@ -1417,280 +1417,48 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>balgas_reaction</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>balgas_reaction</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="D66" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>modInvoke</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>complete_quest(03_zek_intro)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="D67" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>setFlag</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>chitsii.arena.rel.zek,10</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="D68" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>……ゼクの野郎と話しやがったか。</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>……ゼクの野郎と話しやがったか。</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>あいつから物を買うのは、悪魔に魂の切り売りをしてるのと同じだ。……まぁ、勝てば官軍だがな。せいぜい、干からびる前に使い倒してやれ。</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>あいつから物を買うのは、悪魔に魂の切り売りをしてるのと同じだ。……まぁ、勝てば官軍だがな。せいぜい、干からびる前に使い倒してやれ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>ただな……あいつは『力』を売ってるんじゃねえ。『絶望の瞬間』を集めてやがるんだ。お前が最期に何を感じるか、それを観察してやがる。……気をつけろよ。</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>ただな……あいつは『力』を売ってるんじゃねえ。『絶望の瞬間』を集めてやがるんだ。お前が最期に何を感じるか、それを観察してやがる。……気をつけろよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>lily_reaction</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>lily_reaction</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>ゼクと話をされたのですね。</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>ゼクと話をされたのですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>……彼は、このアリーナでも特別な存在です。グランドマスターですら、彼を完全には制御できていません。</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>……彼は、このアリーナでも特別な存在です。グランドマスターですら、彼を完全には制御できていません。</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>ただ、彼の品が闘士の生存率を上げているのも事実。……使うか使わないかは、あなた次第ですが。</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>ただ、彼の品が闘士の生存率を上げているのも事実。……使うか使わないかは、あなた次第ですが。</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>complete_quest(03_zek_intro)</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.zek,10</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="D84" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,72 +1393,38 @@
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ending</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>complete_quest(03_zek_intro)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>pc</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>（ゼクの姿が薄れ、影に溶けるように消えていく。空間の裂け目が閉じ、ロビーの喧騒が一気に戻る。まるで、先ほどの出来事が幻だったかのように。）</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>（ゼクの姿が薄れ、影に溶けるように消えていく。空間の裂け目が閉じ、ロビーの喧騒が一気に戻る。まるで、先ほどの出来事が幻だったかのように。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="D66" t="inlineStr">
-        <is>
-          <t>modInvoke</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>complete_quest(03_zek_intro)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.zek,10</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="D68" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
@@ -747,12 +747,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>（ゼクは懐から、何か金属的な物体を取り出し、軽く弄ぶ。それは、錆びついた懐中時計のようにも、歪んだ魔導具のようにも見える。）</t>
+          <t>（ゼクは懐から、何か金属的なキューブ状の魔道具らしきものをを取り出し、軽く弄ぶ。）</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>（ゼクは懐から、何か金属的な物体を取り出し、軽く弄ぶ。それは、錆びついた懐中時計のようにも、歪んだ魔導具のようにも見える。）</t>
+          <t>（ゼクは懐から、何か金属的なキューブ状の魔道具らしきものをを取り出し、軽く弄ぶ。）</t>
         </is>
       </c>
     </row>
@@ -1065,12 +1065,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
+          <t>ああ、次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
+          <t>ああ、次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1131,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかりこのアリーナの糧としていただくことになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
+          <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかり消費することになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかりこのアリーナの糧としていただくことになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
+          <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかり消費することになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
@@ -769,12 +769,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>お初にお目に掛かります、若き闘士殿。私はゼク……この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める、しがない商人に過ぎません。</t>
+          <t>お初にお目に掛かります、若き闘士殿。私はエゼキエル……単にゼクとお呼び下さい。この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める趣味人に過ぎません。そして、見つけた有用な品々を必要な方にお届けしています。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>お初にお目に掛かります、若き闘士殿。私はゼク……この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める、しがない商人に過ぎません。</t>
+          <t>お初にお目に掛かります、若き闘士殿。私はエゼキエル……単にゼクとお呼び下さい。この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める趣味人に過ぎません。そして、見つけた有用な品々を必要な方にお届けしています。</t>
         </is>
       </c>
     </row>
@@ -818,12 +818,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>……お前は何者だ？</t>
+          <t>……何者だ？</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>……お前は何者だ？</t>
+          <t>……何者だ？</t>
         </is>
       </c>
     </row>
@@ -845,12 +845,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>商人だと？ ここで何を売っているんだ</t>
+          <t>商人なのか？ 売り物はなんだ？</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>商人だと？ ここで何を売っているんだ</t>
+          <t>商人なのか？ 売り物はなんだ？</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
@@ -1109,12 +1109,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>どうでしょう、この薬……名は『業火の接吻』。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
+          <t>どうでしょう、この薬……名は『万難のエリクサー』。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>どうでしょう、この薬……名は『業火の接吻』。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
+          <t>どうでしょう、この薬……名は『万難のエリクサー』。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_zek_intro.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,107 +491,107 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>（ロビーの喧騒が、突如として膜を隔てたかのように遠のく。バルガスの怒声も、リリィのペンが紙を削る音も、水の底に沈んだように遠い。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>（ロビーの喧騒が、突如として膜を隔てたかのように遠のく。バルガスの怒声も、リリィのペンが紙を削る音も、水の底に沈んだように遠い。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>（ロビーの北西の隅、瓦礫が積み上がった影が、生き物のように蠢き始めた。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>（ロビーの北西の隅、瓦礫が積み上がった影が、生き物のように蠢き始めた。）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（空間がガラスのように鋭くひび割れ、その亀裂から、煤けたぼろ布を幾重にも纏った長身の影が滑り出す。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>（空間がガラスのように鋭くひび割れ、その亀裂から、煤けたぼろ布を幾重にも纏った長身の影が滑り出す。）</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（男が踏み出す足跡からは、黒い霧のような魔力の残滓が立ち上り、一瞬で消えていく。周囲の温度が数度下がり、肌を刺すような違和感がその場の空気を支配した。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>（男が踏み出す足跡からは、黒い霧のような魔力の残滓が立ち上り、一瞬で消えていく。周囲の温度が数度下がり、肌を刺すような違和感がその場の空気を支配した。）</t>
         </is>
@@ -607,102 +612,102 @@
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>sukutsu_shady_merchant</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>zek_1</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>……おや。失礼、驚かせるつもりはなかったのですよ。</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>……おや。失礼、驚かせるつもりはなかったのですよ。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>zek_2</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらへ顔を出してしまいました。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>ただ、あまりに芳しい『敗北の予感』が漂ってきたもので……。つい、こちらへ顔を出してしまいました。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>（彼は優雅に、しかしどこか爬虫類を思わせる動作で一礼する。）</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>（彼は優雅に、しかしどこか爬虫類を思わせる動作で一礼する。）</t>
         </is>
@@ -723,78 +728,78 @@
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Zek_Merchant");             var data = SoundManager.current.GetData("BGM/Zek_Merchant");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Zek_Merchant");             }</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>（ゼクは懐から、何か金属的なキューブ状の魔道具らしきものをを取り出し、軽く弄ぶ。）</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>（ゼクは懐から、何か金属的なキューブ状の魔道具らしきものをを取り出し、軽く弄ぶ。）</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>zek_3</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>お初にお目に掛かります、若き闘士殿。私はエゼキエル……単にゼクとお呼び下さい。この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める趣味人に過ぎません。そして、見つけた有用な品々を必要な方にお届けしています。</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>お初にお目に掛かります、若き闘士殿。私はエゼキエル……単にゼクとお呼び下さい。この虚無の狭間で、行き場を失った『価値ある遺物』を拾い集める趣味人に過ぎません。そして、見つけた有用な品々を必要な方にお届けしています。</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>zek_4</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>バルガスのように、あなたの肉体を試すような無作法はいたしません。私はただ、あなたの行く先に待つ『絶望』を、少しだけ華やかなものに変えるお手伝いをしたいだけなのです……ふふ。</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>バルガスのように、あなたの肉体を試すような無作法はいたしません。私はただ、あなたの行く先に待つ『絶望』を、少しだけ華やかなものに変えるお手伝いをしたいだけなのです……ふふ。</t>
         </is>
@@ -806,22 +811,22 @@
           <t>react_who</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>c_who</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>……何者だ？</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>……何者だ？</t>
         </is>
@@ -833,22 +838,22 @@
           <t>react_merchant</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>c_merchant</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>商人なのか？ 売り物はなんだ？</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>商人なのか？ 売り物はなんだ？</t>
         </is>
@@ -860,22 +865,22 @@
           <t>react_silent</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>c_silent</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>（無言で警戒する）</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>（無言で警戒する）</t>
         </is>
@@ -889,22 +894,22 @@
       </c>
     </row>
     <row r="31">
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>zek_r1</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>ふふ、警戒心がおありで結構。ですが、私はただの商人。あなたに害を加える気など、毛頭ございませんよ。……少なくとも、今は。</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>ふふ、警戒心がおありで結構。ですが、私はただの商人。あなたに害を加える気など、毛頭ございませんよ。……少なくとも、今は。</t>
         </is>
@@ -925,22 +930,22 @@
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>zek_r2</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>おや、興味をお持ちで？ では、ご覧に入れましょう。この世界の果てで、命を繋ぐための『道具』を。</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>おや、興味をお持ちで？ では、ご覧に入れましょう。この世界の果てで、命を繋ぐための『道具』を。</t>
         </is>
@@ -961,22 +966,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>zek_r3</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>……ほう。言葉少なに、しかし鋭い視線。あなたの本能が、私を『危険』だと囁いているのでしょうね。賢明です。</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>……ほう。言葉少なに、しかし鋭い視線。あなたの本能が、私を『危険』だと囁いているのでしょうね。賢明です。</t>
         </is>
@@ -997,144 +1002,144 @@
       </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_02");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_02");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_02");             }</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>（ゼクが長い指先を虚空で躍らせると、空間の裂け目から禍々しいオーラを放つ品々が浮かび上がる。）</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>（ゼクが長い指先を虚空で躍らせると、空間の裂け目から禍々しいオーラを放つ品々が浮かび上がる。）</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>（焼けただれた魔導書、ページが勝手にめくれ、奇妙な文字が光る。不規則に脈打つ肉塊、まるで心臓のように拍動している。毒々しく発光する薬瓶、中の液体が泡立っている。）</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>（焼けただれた魔導書、ページが勝手にめくれ、奇妙な文字が光る。不規則に脈打つ肉塊、まるで心臓のように拍動している。毒々しく発光する薬瓶、中の液体が泡立っている。）</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>zek_5</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>ああ、次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>ああ、次なるランクF……『泥犬』への試練。そこには、あなたの体温を根こそぎ奪い去る『凍てつく魔物』が待ち構えている。</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>zek_6</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>地上の安っぽい防具では、魂まで凍り付いてしまうでしょう。……ああ、想像できますよ。あなたが氷漬けになり、そのまま観客たちの冷笑の中で砕け散る様が。</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>地上の安っぽい防具では、魂まで凍り付いてしまうでしょう。……ああ、想像できますよ。あなたが氷漬けになり、そのまま観客たちの冷笑の中で砕け散る様が。</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>zek_7</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>どうでしょう、この薬……名は『万難のエリクサー』。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>どうでしょう、この薬……名は『万難のエリクサー』。飲めば血潮が沸き立ち、氷をも溶かす力を得られます。</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>zek_8</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかり消費することになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>……もっとも、引き換えに、あなたの『運命（カルマ）』を少しばかり消費することになりますが。命を落とす不条理に比べれば、安い対価だと思いませんか？</t>
         </is>
@@ -1146,22 +1151,22 @@
           <t>price_ask</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>c_price_ask</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>代償とは、具体的には？</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>代償とは、具体的には？</t>
         </is>
@@ -1173,22 +1178,22 @@
           <t>price_refuse</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>c_price_refuse</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>怪しすぎる。断る</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>怪しすぎる。断る</t>
         </is>
@@ -1200,22 +1205,22 @@
           <t>price_consider</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>c_price_consider</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>……考えておく</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>……考えておく</t>
         </is>
@@ -1229,22 +1234,22 @@
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>zek_p1</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>ふふ、慎重なこと。ええ、あなたの善性……いわゆる『カルマ』を少々捧げていただくだけです。……まあ、『少々』がどの程度かは、使ってみてのお楽しみということで。</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>ふふ、慎重なこと。ええ、あなたの善性……いわゆる『カルマ』を少々捧げていただくだけです。……まあ、『少々』がどの程度かは、使ってみてのお楽しみということで。</t>
         </is>
@@ -1265,22 +1270,22 @@
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>zek_p2</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>おや、残念。ですが、無理強いはいたしません。……いつでもお声掛けくださいませ。あなたが『絶望』を前にした時、私の品が恋しくなるでしょうから。</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>おや、残念。ですが、無理強いはいたしません。……いつでもお声掛けくださいませ。あなたが『絶望』を前にした時、私の品が恋しくなるでしょうから。</t>
         </is>
@@ -1301,22 +1306,22 @@
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>zek_p3</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>賢明な判断です。焦る必要はございません。私は常に、影の中で待っておりますから。</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>賢明な判断です。焦る必要はございません。私は常に、影の中で待っておりますから。</t>
         </is>
@@ -1337,56 +1342,56 @@
       </c>
     </row>
     <row r="60">
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>zek_9</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>さあ、賢明な選択を。私は常に、この歪んだ影の中に潜んでおりますよ。</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>さあ、賢明な選択を。私は常に、この歪んだ影の中に潜んでおりますよ。</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>sukutsu_shady_merchant</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>sukutsu_shady_merchant</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>zek_10</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>あなたが『力』を、あるいは『救い』を求めたくなったら……いつでもお声掛けください。あなたの魂が、完熟した果実のように弾けるその時まで、ね。</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>あなたが『力』を、あるいは『救い』を求めたくなったら……いつでもお声掛けください。あなたの魂が、完熟した果実のように弾けるその時まで、ね。</t>
         </is>
@@ -1407,24 +1412,24 @@
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>complete_quest(03_zek_intro)</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>end</t>
         </is>
